--- a/Leçon chimie/LC 20/LC 20-Détermination constantes d'équilibre.xlsx
+++ b/Leçon chimie/LC 20/LC 20-Détermination constantes d'équilibre.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15040" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Exp 1 = Pile Daniell " sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t xml:space="preserve">Expérience 1 : Force électromotrice de la pile Daniell  </t>
   </si>
@@ -141,9 +141,6 @@
     <t>préparation solution titrante de soude  à 0,1 mol/L</t>
   </si>
   <si>
-    <t>Dillution: préparation solution titrante de soude  à 1.10^-2 mol/L</t>
-  </si>
-  <si>
     <t>Concentration en HO- de la solution mère (mol/L)</t>
   </si>
   <si>
@@ -177,12 +174,6 @@
     <t>titrage pH métrique de la solution d'acide benzoïque à 25°C</t>
   </si>
   <si>
-    <t>titrage colorimétrique de la solution d'acide benzoïque à 25°C</t>
-  </si>
-  <si>
-    <t>Expérience 2 : détermination du Ks de l'acide benzoïque en fonction de la température</t>
-  </si>
-  <si>
     <t>titrage pH métrique de la solution d'acide benzoïque à 0°C</t>
   </si>
   <si>
@@ -243,9 +234,6 @@
     <t>Conductivité molaire ionique à 25°C (mS.m2/mol)</t>
   </si>
   <si>
-    <t>Conductivité σ (mS.cm-1)</t>
-  </si>
-  <si>
     <t>pKa</t>
   </si>
   <si>
@@ -255,40 +243,58 @@
     <t>Conductivité σ (mS.m-1)</t>
   </si>
   <si>
-    <t>Coccentration fille en HO- (mol/m3)</t>
-  </si>
-  <si>
     <t>Ka</t>
   </si>
   <si>
     <t>RESULTATS</t>
   </si>
   <si>
-    <t>Mesure</t>
-  </si>
-  <si>
     <t>Grandeur</t>
   </si>
   <si>
     <t>Incertitude</t>
   </si>
   <si>
-    <t xml:space="preserve">Pipette jaugée (10mL) </t>
-  </si>
-  <si>
     <t xml:space="preserve">On mesure la conductivité d'une solution d'acide benzoïque à 10-2 mol.L-1 à 25°C </t>
   </si>
   <si>
     <t>Expérience 2 : détermination du Ks  à différentes températures</t>
   </si>
   <si>
-    <t>On réalise différents titrages pour mesurer la constante de solubilité de l'acide benzoïque à différentes températures, attention la solution titratnte n'est pas toujours à la même concentration</t>
-  </si>
-  <si>
     <t>Dtermination du Ka de l'acide benzoïque par conductimétrie(25°C)</t>
   </si>
   <si>
     <t>la pente est égale à -∆rH°/R</t>
+  </si>
+  <si>
+    <t>titrage pH métrique ou coloriméétrique  de la solution d'acide benzoïque à 25°C</t>
+  </si>
+  <si>
+    <t>masse PhCOOH (g)</t>
+  </si>
+  <si>
+    <t>Concentration en PhCOOH (mol/L)</t>
+  </si>
+  <si>
+    <t>concentration PhCOOH (mol/L)</t>
+  </si>
+  <si>
+    <t>préparation solution d'acide benzoïque  à 10-2 mol/L</t>
+  </si>
+  <si>
+    <t>Concentration en PhCOOH (mol/m3)</t>
+  </si>
+  <si>
+    <t>Mesure de la conductivité</t>
+  </si>
+  <si>
+    <t>Masse molaire NaOH (g/mol)</t>
+  </si>
+  <si>
+    <t>Expérience 2 : détermination du Ks de l'acide benzoïque à 25°C</t>
+  </si>
+  <si>
+    <t>Masse molaire PhCOOH (g/mol)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -651,17 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -872,50 +867,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -967,8 +920,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -984,16 +939,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1007,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1015,48 +969,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="8" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="9" fillId="19" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="9" fillId="19" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,29 +1015,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1117,6 +1063,7 @@
     <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
@@ -1142,6 +1089,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1297,11 +1245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2038068792"/>
-        <c:axId val="2112302328"/>
+        <c:axId val="2140894040"/>
+        <c:axId val="2140205720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2038068792"/>
+        <c:axId val="2140894040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1337,12 +1285,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112302328"/>
+        <c:crossAx val="2140205720"/>
         <c:crossesAt val="-5.0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112302328"/>
+        <c:axId val="2140205720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-3.0"/>
@@ -1379,7 +1327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2038068792"/>
+        <c:crossAx val="2140894040"/>
         <c:crossesAt val="-4.3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1697,7 +1645,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1707,23 +1655,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1">
       <c r="C3" s="3" t="s">
@@ -1734,10 +1682,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="81"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1706,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="5"/>
@@ -1784,16 +1732,16 @@
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <f>EXP(-B9*1000/(B21*B22))</f>
         <v>9.129145763283992E+36</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="27"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
@@ -1816,13 +1764,13 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <f>EXP(-B14*1000/(B21*B22))</f>
         <v>9.129145763283992E+36</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="5"/>
@@ -1831,7 +1779,7 @@
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>96485.332899999994</v>
       </c>
     </row>
@@ -1868,94 +1816,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="42.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.5" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="29" t="s">
-        <v>27</v>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="28" t="s">
+        <v>85</v>
       </c>
       <c r="G3">
         <v>39.997</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="5">
         <v>0.02</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1963,7 +1911,7 @@
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5">
@@ -1975,15 +1923,15 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>0.1</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>1E-4</v>
       </c>
     </row>
@@ -1991,117 +1939,67 @@
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="5">
         <f>(C10/G3)/C11</f>
         <v>0.10000750056254219</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <f>C12*SQRT((D10/C10)^2+(D11/C11)^2)</f>
         <v>1.250133759391975E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1"/>
     <row r="15" spans="1:7">
-      <c r="A15" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="46"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="48" t="s">
+      <c r="A16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="59">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D17" s="63">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="63">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D17" s="67">
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48">
         <f>(C12*C17)/C5</f>
-        <v>2.5001875140635548E-2</v>
-      </c>
-      <c r="D18" s="52">
+        <v>2.0501537615321152E-2</v>
+      </c>
+      <c r="D18" s="49">
         <f>C18*SQRT( (D12/C12)^2 + (D17/C17)^2+(D5/C5)^2 )</f>
-        <v>3.1576685346153778E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="63">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="D23" s="46">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51">
-        <f>(C12*C23)/C5</f>
-        <v>2.5001875140635548E-2</v>
-      </c>
-      <c r="D24" s="52">
-        <f>C24*SQRT( (D12/C12)^2 + (D23/C23)^2+(D5/C5)^2 )</f>
-        <v>0.25003856585733214</v>
+        <v>2.5932395658498984E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2120,355 +2018,264 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41.5" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="34" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="5">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="D5" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="5">
         <v>0.1</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>28</v>
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
       </c>
       <c r="C7" s="5">
-        <f>(C5/B33)/C6</f>
-        <v>0.10000750056254219</v>
-      </c>
-      <c r="D7" s="27">
+        <f>(C5/B24)/C6</f>
+        <v>9.8264002620373388E-3</v>
+      </c>
+      <c r="D7" s="67">
         <f>C7*SQRT((D5/C5)^2+(D6/C6)^2)</f>
-        <v>1.250133759391975E-2</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="34" t="s">
+        <v>8.1892564478233427E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="38">
+        <f>C7*1000</f>
+        <v>9.826400262037339</v>
+      </c>
+      <c r="D8" s="38">
+        <f>C8*D7/C7</f>
+        <v>0.81892564478233432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="27">
+      <c r="C11" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="67">
+        <v>28.88</v>
+      </c>
+      <c r="C12" s="5">
         <v>0.01</v>
       </c>
-      <c r="D11" s="27">
-        <v>2.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5">
-        <f>C7</f>
-        <v>0.10000750056254219</v>
-      </c>
-      <c r="D12" s="27">
-        <f>D7</f>
-        <v>1.250133759391975E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="27">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5">
-        <f>C11*C12/C13</f>
-        <v>1.0000750056254219E-2</v>
-      </c>
-      <c r="D14" s="42">
-        <f>C14*SQRT((D13/C13)^2+(D12/C12)^2+(D11/C11)^2)</f>
-        <v>1.2503337519958223E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <f>C14*1000</f>
-        <v>10.000750056254219</v>
-      </c>
-      <c r="D15" s="27">
-        <f>D14*1000</f>
-        <v>1.2503337519958224</v>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B12/(C8*(B22+C22))</f>
+        <v>7.6917595742824765E-2</v>
+      </c>
+      <c r="C16" s="26">
+        <f>B16*SQRT((D8/C8)^2+(C12/B12)^2)</f>
+        <v>6.4103164627651206E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="5">
+        <f>(C7*B16^2)/(1-B16)</f>
+        <v>6.2980394903306897E-5</v>
+      </c>
+      <c r="C17" s="26">
+        <f>B17*SQRT((D7/C7)^2+2*(C16/B16)^2+(C16/(1-B16))^2)</f>
+        <v>9.101658300331535E-6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="5">
+        <f>-LOG(B17)</f>
+        <v>4.200794620552613</v>
+      </c>
+      <c r="C18" s="67">
+        <f>C17/B17</f>
+        <v>0.14451573881531246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="71" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="75">
+      <c r="B22" s="68">
         <v>3.23</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C22" s="5">
         <v>34.979999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="77">
-        <v>0.03</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="27">
-        <f>B24*100</f>
-        <v>3</v>
-      </c>
-      <c r="C25" s="5">
-        <f>C24*100</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="84" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="5">
-        <f>B25/(C15*(B20+C20))</f>
-        <v>7.8507589636220895E-3</v>
-      </c>
-      <c r="C29" s="27">
-        <f>B29*SQRT((D15/C15)^2+(C25/B25)^2)</f>
-        <v>9.8188206425701041E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="5">
-        <f>(C15*B29^2)/(1-B29)</f>
-        <v>6.2126781620523372E-4</v>
-      </c>
-      <c r="C30" s="27">
-        <f>B30*SQRT((D15/C15)^2+2*(C29/B29)^2+(C29/(1-B29))^2)</f>
-        <v>1.3456752917528469E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="5">
-        <f>-LOG(B30)</f>
-        <v>3.2067211437416283</v>
-      </c>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>39.997</v>
-      </c>
+      <c r="A24" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5">
+        <v>122.12</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="F4:K7"/>
+  <mergeCells count="5">
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D10:I12"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2481,8 +2288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2501,22 +2308,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="A1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="29" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="F3" s="28" t="s">
         <v>27</v>
       </c>
       <c r="G3">
@@ -2524,79 +2331,77 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="30"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="5">
         <v>0.02</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="F6" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="5">
@@ -2605,21 +2410,21 @@
       <c r="D10" s="5">
         <v>0.05</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="5">
         <v>0.1</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>1E-4</v>
       </c>
     </row>
@@ -2627,332 +2432,332 @@
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="38" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="5">
         <f>(C10/G3)/C11</f>
         <v>0.10000750056254219</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <f>C12*SQRT((D10/C10)^2+(D11/C11)^2)</f>
         <v>1.250133759391975E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="A14" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="41" t="s">
-        <v>43</v>
+      <c r="A16" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="27">
+        <v>38</v>
+      </c>
+      <c r="C16" s="26">
         <v>0.02</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="41" t="s">
-        <v>37</v>
+      <c r="A17" s="40" t="s">
+        <v>36</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5">
         <f>C12</f>
         <v>0.10000750056254219</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <f>D12</f>
         <v>1.250133759391975E-2</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="41" t="s">
-        <v>44</v>
+      <c r="A18" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="5">
         <v>0.1</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="41" t="s">
-        <v>38</v>
+      <c r="A19" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5">
         <f>C16*C17/C18</f>
         <v>2.0001500112508439E-2</v>
       </c>
-      <c r="D19" s="42">
+      <c r="D19" s="41">
         <f>C19*SQRT((D18/C18)^2+(D17/C17)^2+(D16/C16)^2)</f>
         <v>2.5005275164468772E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="69" t="s">
-        <v>63</v>
+      <c r="A23" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="65" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="43" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="59">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D25" s="67">
+      <c r="D25" s="63">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51">
+      <c r="A26" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48">
         <f>(C19*C25)/C5</f>
         <v>1.5001125084381327E-2</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="49">
         <f>C26*SQRT( (D19/C19)^2 + (D25/C25)^2+(D5/C5)^2 )</f>
         <v>1.8895083398022662E-3</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="66">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D30" s="64">
+        <v>5.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="70">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="D30" s="68">
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59">
+      <c r="B31" s="55"/>
+      <c r="C31" s="55">
         <f>(C19*C30)/C5</f>
         <v>1.7001275095632176E-2</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="56">
         <f>C31*SQRT( (D19/C19)^2 + (D30/C30)^2+(D5/C5)^2 )</f>
         <v>2.141276718246995E-3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="69" t="s">
-        <v>62</v>
+      <c r="A33" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="70">
+      <c r="C35" s="66">
         <v>4.4999999999999997E-3</v>
       </c>
-      <c r="D35" s="68">
+      <c r="D35" s="64">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="59"/>
-      <c r="C36" s="59">
+      <c r="A36" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55">
         <f>(C12*C35)/C5</f>
         <v>2.2501687626571992E-2</v>
       </c>
-      <c r="D36" s="60">
+      <c r="D36" s="56">
         <f>C36*SQRT((D12/C12)^2+(D35/C35)^2+(D5/C5)^2)</f>
         <v>2.8439904969594105E-3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="69" t="s">
-        <v>62</v>
+      <c r="A38" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="54" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="70">
+      <c r="C40" s="66">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D40" s="68">
+      <c r="D40" s="64">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59">
+      <c r="A41" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55">
         <f>(C12*C40)/C5</f>
         <v>3.0002250168762661E-2</v>
       </c>
-      <c r="D41" s="60">
+      <c r="D41" s="56">
         <f>C41*SQRT( (D12/C12)^2 + (D40/C40)^2+(D5/C5)^2 )</f>
         <v>3.7855712252995496E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1"/>
     <row r="45" spans="1:8" ht="16" thickTop="1" thickBot="1">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="12" t="s">
@@ -2966,17 +2771,17 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15" thickTop="1">
-      <c r="A46" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="B46" s="19">
+      <c r="A46" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="18">
         <v>273</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="19">
         <f>C26</f>
         <v>1.5001125084381327E-2</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <f>D26</f>
         <v>1.8895083398022662E-3</v>
       </c>
@@ -2994,22 +2799,22 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="19">
+      <c r="A47" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="18">
         <v>283</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="19">
         <f>C31</f>
         <v>1.7001275095632176E-2</v>
       </c>
-      <c r="D47" s="61">
+      <c r="D47" s="57">
         <f>D31</f>
         <v>2.141276718246995E-3</v>
       </c>
       <c r="E47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" ref="F47:F49" si="0">LN(C47)</f>
@@ -3020,22 +2825,22 @@
         <v>3.5335689045936395E-3</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" ref="H47:H49" si="2">LN(D47)</f>
-        <v>-6.1463530305301228</v>
+        <f t="shared" ref="H47:H49" si="2">D47/C47</f>
+        <v>0.125948007205478</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="19">
+      <c r="A48" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="18">
         <v>297</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="21">
         <f>C36</f>
         <v>2.2501687626571992E-2</v>
       </c>
-      <c r="D48" s="61">
+      <c r="D48" s="57">
         <f>D36</f>
         <v>2.8439904969594105E-3</v>
       </c>
@@ -3049,21 +2854,21 @@
       </c>
       <c r="H48" s="10">
         <f t="shared" si="2"/>
-        <v>-5.8625471084815315</v>
+        <v>0.12639009767431728</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" thickBot="1">
-      <c r="A49" s="66" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="23">
+      <c r="A49" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="22">
         <v>323</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="23">
         <f>C41</f>
         <v>3.0002250168762661E-2</v>
       </c>
-      <c r="D49" s="62">
+      <c r="D49" s="58">
         <f>D41</f>
         <v>3.7855712252995496E-3</v>
       </c>
@@ -3075,17 +2880,18 @@
         <f t="shared" si="1"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="10">
         <f t="shared" si="2"/>
-        <v>-5.576558485302832</v>
+        <v>0.12617624358192173</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickTop="1"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="F6:H10"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
